--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1546.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1546.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.323266123189544</v>
+        <v>1.613414406776428</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>3.298765897750854</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.273428916931152</v>
       </c>
       <c r="D1">
-        <v>1.501360990690321</v>
+        <v>1.328328132629395</v>
       </c>
       <c r="E1">
-        <v>0.8811781645917913</v>
+        <v>0.7779595255851746</v>
       </c>
     </row>
   </sheetData>
